--- a/Planning DP.xlsx
+++ b/Planning DP.xlsx
@@ -36,9 +36,6 @@
     <t>Personne 2</t>
   </si>
   <si>
-    <t>Paul Malliet</t>
-  </si>
-  <si>
     <t>Gissela Landa</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Claudine Houdin</t>
+  </si>
+  <si>
+    <t>Aurélien Saussay</t>
   </si>
 </sst>
 </file>
@@ -238,10 +238,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -250,16 +257,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +564,7 @@
   <dimension ref="C1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E7"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -585,53 +585,53 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
